--- a/CURSO_PYTHON/openpyxl/workbook.xlsx
+++ b/CURSO_PYTHON/openpyxl/workbook.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Minha_planilha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,4 +520,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CURSO_PYTHON/openpyxl/workbook.xlsx
+++ b/CURSO_PYTHON/openpyxl/workbook.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Minha_planilha" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,22 +519,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/CURSO_PYTHON/openpyxl/workbook.xlsx
+++ b/CURSO_PYTHON/openpyxl/workbook.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>7.5</v>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>8.5</v>
